--- a/biology/Botanique/Roero_(DOCG)/Roero_(DOCG).xlsx
+++ b/biology/Botanique/Roero_(DOCG)/Roero_(DOCG).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Roero est un vin italien de la région Piémont dont les appellations sont dotés d'une appellation DOCG depuis le 15 juillet 2004. Seuls ont droit à la DOCG les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. 
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Cuneo dans les communes de Canale, Corneliano d'Alba, Piobesi d'Alba, Vezza d'Alba  et en partie dans les communes Baldissero d'Alba, Castagnito, Castellinaldo, Govone, Guarene, Magliano Alfieri, Montà, Montaldo Roero, Monteu Roero, Monticello d'Alba, Pocapaglia, Priocca, Santa Vittoria d'Alba, Santo Stefano Roero, Sommariva Perno.  La superficie plantée en vignes sur les collines ensoleillées qui donnent sur le Tanaro est de 202 hectares.
 Voir aussi l'article Roero superiore.
@@ -544,7 +558,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur: rouge rubis  avec des reflets grenat après vieillissement
 odeur: fin, agréable et fugace
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,7 +622,9 @@
           <t>Association de plats conseillée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rôtis de viande rouge, le gibier, les fromages à pâte dure
 </t>
@@ -635,7 +655,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
 Cuneo  (1990/91)  5040,55
